--- a/medicine/Sexualité et sexologie/Jeux_avec_de_la_nourriture/Jeux_avec_de_la_nourriture.xlsx
+++ b/medicine/Sexualité et sexologie/Jeux_avec_de_la_nourriture/Jeux_avec_de_la_nourriture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeux avec de l'alimentation sont une forme de fétichisme recouvrant de nombreuses pratiques caractérisées par l'utilisation de nourriture. Il peut avoir une connotation sexuelle ou pas. Il s'agit, le plus souvent, de sitophilie (du grec sitos, « blé » et philia, « amour de ») mais celle-ci n'est qu'une forme de jeux avec de la nourriture. 
 La nourriture peut être solide ou pas. Lorsque solide, elle est, le plus fréquemment, utilisée dans un but pénétratif. C'est le cas notamment des bananes, carottes, concombre, courgette, frites. La nourriture solide peut aussi être utilisée dans un but non pénétratif, c'est le cas par exemple des biscuits. Son utilisation consiste alors à frotter cette nourriture sur le corps de son ou de sa partenaire, en particulier sur les parties génitales, souvent pour y déposer des sécrétions (par exemple de la cyprine) avant de l'ingérer.
@@ -515,7 +527,9 @@
           <t>Sous-groupes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fétichisme concernant les jeux avec les aliments recouvre différents sous groupes.
 Sitophilie - Correspond au désir de manger à partir du corps d'une autre personne. Le but du jeu est d'étaler les aliments sur le corps de son/sa partenaire puis de la lécher. La crème chantilly, la crème fouettée, le miel ou les crèmes chocolatées sont couramment utilisés. La sitophilie peut s'apparenter à d'autres fétichismes salissant en fonction de la consistance plus ou moins fluide de la nourriture utilisée.
